--- a/ig/main/ValueSet-vs-all-terminologie-cim-10.xlsx
+++ b/ig/main/ValueSet-vs-all-terminologie-cim-10.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from CIM-10" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from terminologie-cim" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-vs-all-terminologie-cim-10.xlsx
+++ b/ig/main/ValueSet-vs-all-terminologie-cim-10.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from terminologie-cim" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from CIM-10" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-09T12:00:00-00:00</t>
+    <t>2023-11-15T12:00:00-00:00</t>
   </si>
   <si>
     <t>Publisher</t>
